--- a/Schematic/Project Outputs for NaiS802HD_0.7/NaiS802HD_0.7.xlsx
+++ b/Schematic/Project Outputs for NaiS802HD_0.7/NaiS802HD_0.7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="23715" windowHeight="9870" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="23715" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="NaiS802HD_0.7" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="179">
   <si>
     <t>Comment</t>
   </si>
@@ -556,6 +556,10 @@
   </si>
   <si>
     <t>sub total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,18 +567,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -582,7 +586,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -607,7 +611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -630,6 +634,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -639,7 +654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,6 +684,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -975,13 +993,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="17.375" customWidth="1"/>
@@ -991,7 +1009,7 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="6"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1012,7 +1030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27">
       <c r="A2" s="7">
         <f>ROW()-1</f>
         <v>1</v>
@@ -1034,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="94.5">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
         <v>2</v>
@@ -1058,7 +1076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1082,7 +1100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1106,7 +1124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1130,7 +1148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="67.5">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1154,7 +1172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1176,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1200,7 +1218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1221,8 +1239,11 @@
       <c r="G10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1246,7 +1267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1270,7 +1291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1294,7 +1315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1316,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1340,7 +1361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1364,7 +1385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1388,7 +1409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1410,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1432,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1454,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1475,8 +1496,11 @@
       <c r="G21" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="27">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1500,7 +1524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="27">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1522,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="27">
       <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1544,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1566,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1587,8 +1611,11 @@
       <c r="G26" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="7">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1610,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1631,8 +1658,11 @@
       <c r="G28" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H28" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="27">
       <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1653,8 +1683,11 @@
       <c r="G29" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="7">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1676,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1698,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1722,7 +1755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1744,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1767,8 +1800,11 @@
       <c r="G34" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1791,8 +1827,11 @@
       <c r="G35" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1814,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1838,7 +1877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1862,7 +1901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="27">
       <c r="A39" s="7">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1886,7 +1925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="7">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1910,7 +1949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="54">
       <c r="A41" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1934,7 +1973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1956,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1978,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2002,7 +2041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2024,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2046,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2069,8 +2108,11 @@
       <c r="G47" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2092,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2114,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" s="7">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2138,7 +2180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2162,7 +2204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2184,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="7">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2206,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" s="7">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2230,7 +2272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" s="7">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2251,8 +2293,11 @@
       <c r="G55" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2274,7 +2319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2297,8 +2342,11 @@
       <c r="G57" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="7">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2322,7 +2370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" s="7">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2346,7 +2394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" s="7">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2368,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2390,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" s="7">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2411,8 +2459,11 @@
       <c r="G62" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2434,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" s="7">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2456,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2478,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="27">
       <c r="A66" s="7">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2500,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" s="7">
         <f t="shared" ref="A67:A68" si="1">ROW()-1</f>
         <v>66</v>
@@ -2522,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" s="7">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -2559,11 +2610,11 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
@@ -2573,7 +2624,7 @@
     <col min="7" max="7" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27">
       <c r="A1" s="6"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2598,7 +2649,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="7">
         <f>ROW()-1</f>
         <v>1</v>
@@ -2623,13 +2674,13 @@
         <v>13</v>
       </c>
       <c r="I2" s="7">
-        <f>G2*H2</f>
+        <f t="shared" ref="I2:I10" si="0">G2*H2</f>
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="7">
-        <f t="shared" ref="A3:A10" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A10" si="1">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2652,13 +2703,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="7">
-        <f>G3*H3</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2681,13 +2732,13 @@
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <f>G4*H4</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2710,13 +2761,13 @@
         <v>170</v>
       </c>
       <c r="I5" s="7">
-        <f>G5*H5</f>
+        <f t="shared" si="0"/>
         <v>850</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2739,13 +2790,13 @@
         <v>4</v>
       </c>
       <c r="I6" s="7">
-        <f>G6*H6</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2768,13 +2819,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <f>G7*H7</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2797,13 +2848,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <f>G8*H8</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2826,13 +2877,13 @@
         <v>3</v>
       </c>
       <c r="I9" s="7">
-        <f>G9*H9</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2853,11 +2904,11 @@
         <v>2.5</v>
       </c>
       <c r="I10" s="7">
-        <f>G10*H10</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="I11" s="9">
         <f>SUM(I2:I10)</f>
         <v>1175</v>
@@ -2880,9 +2931,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="5"/>
     </row>
   </sheetData>
